--- a/Lab05_Billings/State_Table_Billings.xlsx
+++ b/Lab05_Billings/State_Table_Billings.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakebillings/Dev/workspaces/edu/edu-csci1510/Lab05_Billings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILLINJA\Documents\edu-csci1510\Lab05_Billings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="16665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$M$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$103</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>State</t>
   </si>
@@ -64,13 +68,27 @@
   <si>
     <t>Q0NOT</t>
   </si>
+  <si>
+    <t>Q1NOT</t>
+  </si>
+  <si>
+    <t>Q2NOT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -94,16 +112,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -116,8 +278,1706 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39342</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>15438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>77874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39342" y="11778813"/>
+          <a:ext cx="8279158" cy="3040586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39336</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>17645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39336" y="14757398"/>
+          <a:ext cx="8326789" cy="6513697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>18855</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Group 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18855" y="4616448"/>
+          <a:ext cx="8442520" cy="4800601"/>
+          <a:chOff x="1030778" y="498763"/>
+          <a:chExt cx="10066713" cy="5835535"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1030778" y="498763"/>
+            <a:ext cx="10066713" cy="5835535"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="23" name="Group 22"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1600470" y="1194949"/>
+            <a:ext cx="8927327" cy="4443161"/>
+            <a:chOff x="1612339" y="1123451"/>
+            <a:chExt cx="8927327" cy="4443161"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Oval 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1612339" y="1123451"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>000</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Oval 24"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8935456" y="3962402"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>001</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Oval 25"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8935456" y="1123451"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>010</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Oval 26"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6418322" y="3962402"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>011</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Oval 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1612339" y="3962402"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>100</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Oval 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3901188" y="3962402"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>101</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Oval 29"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6300856" y="1123451"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>110</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Oval 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3780399" y="1123451"/>
+              <a:ext cx="1604210" cy="1604210"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>111</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="24" idx="4"/>
+              <a:endCxn id="28" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2414444" y="2727661"/>
+              <a:ext cx="0" cy="1234741"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="25" idx="0"/>
+              <a:endCxn id="26" idx="4"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9737561" y="2727661"/>
+              <a:ext cx="0" cy="1234741"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="26" idx="2"/>
+              <a:endCxn id="30" idx="6"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="7905066" y="1925556"/>
+              <a:ext cx="1030390" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="27" idx="6"/>
+              <a:endCxn id="25" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8022532" y="4764507"/>
+              <a:ext cx="912924" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="28" idx="6"/>
+              <a:endCxn id="29" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3216549" y="4764507"/>
+              <a:ext cx="684639" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="27" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5505398" y="4764506"/>
+              <a:ext cx="912924" cy="1"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="30" idx="2"/>
+              <a:endCxn id="31" idx="6"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5384609" y="1925556"/>
+              <a:ext cx="916247" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="31" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3214889" y="1925556"/>
+              <a:ext cx="565510" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,296 +2243,965 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:J18" si="0">B3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f>IF(H4,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:M18" si="1">IF(I4,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H18" si="2">A4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K18" si="3">IF(H5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <autoFilter ref="A2:M18"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L
+&amp;"-,Bold"Lab 5: Circuit State Analysis&amp;R&amp;10Jake Billings
+11/15/2017
+Logic Design</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>